--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Не используется</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Создать папки Models, ViewModels для классов моделей и вью-моделей</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>Метод AddPolygon(), несмотря на название, добавляет точку к текущему полигону</t>
+  </si>
+  <si>
+    <t>MainWindowVM.Shapes  не нуждается в OnPropertyChanged();, т.к. указатель на коллекцию никогда не меняется</t>
+  </si>
+  <si>
+    <t>Использовать var всегда при объявлении переменных</t>
+  </si>
+  <si>
+    <t>Уменьшать вложенность методов, где это возможно. Например, Polygon.AddPoint(): если после проверки Geometry == null написать return, вложенность уменьшится</t>
+  </si>
+  <si>
+    <t>Следовать советам решарпера</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,15 +545,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -554,92 +561,102 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6">
+        <v>42919</v>
+      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -78,7 +78,23 @@
     <t>Уменьшать вложенность методов, где это возможно. Например, Polygon.AddPoint(): если после проверки Geometry == null написать return, вложенность уменьшится</t>
   </si>
   <si>
-    <t>Следовать советам решарпера</t>
+    <t>BaseShapeVM содержит свойство Selected, которое должно относиться только к прямоугольникам</t>
+  </si>
+  <si>
+    <t>Коллекции и исходные значения полей и свойств объявлять в конструкторе. Удобно видеть инициализацию всех параметров в одном месте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainWindowVM.Shapes. Нет надобности в _shapes, можно в свойстве сделать private set </t>
+  </si>
+  <si>
+    <t>DelegateCommand получается лишней сущностью. Т.к. ты в неё передаёшь код который находится в MainWindowVM.
+Идея команды как раз заключается в том чтобы инкапсулировать конкретные действия в конкретных командах. Т.е. тебе нужна RectangulateCommand. В разметке в кнопку добавить  CommandParameter="{Binding}". В таком случае MainWindowVM будет передана как параметр при вызове метода Execute(). В Execute() пропишешь всю необходимую логику ректангуляции.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непонятно сейчас по какому принципу отделена модель от вью-модели. 
+    Модель должна содержать в себе все данные объекта (для нашего полигона это координаты точек и цвет и толщина рёбер).
+    Вью-модель должна оборачивать модель и предоставлять возможность отображения модели. 
+Все специфические способы отрисовки, например, с помощью PathGeometry нужно инкапсулировать во вью-модели. А логику работы (создание, изменение) в модели. Тогда мы сможем взять работающую модель и использовать в другом месте, например, в AutoCAD'e или ArcGIS'e. </t>
   </si>
 </sst>
 </file>
@@ -125,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,12 +164,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -482,7 +512,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,13 +654,13 @@
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -654,8 +684,8 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
+      <c r="B18" s="6">
+        <v>42921</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -663,35 +693,44 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -95,6 +95,29 @@
     Модель должна содержать в себе все данные объекта (для нашего полигона это координаты точек и цвет и толщина рёбер).
     Вью-модель должна оборачивать модель и предоставлять возможность отображения модели. 
 Все специфические способы отрисовки, например, с помощью PathGeometry нужно инкапсулировать во вью-модели. А логику работы (создание, изменение) в модели. Тогда мы сможем взять работающую модель и использовать в другом месте, например, в AutoCAD'e или ArcGIS'e. </t>
+  </si>
+  <si>
+    <t>Избавиться от статических Ширины и Высоты в RectangleVM</t>
+  </si>
+  <si>
+    <t>В RectangulationCommand создавать модели Rectangle, а потом уже на основании моделей создавать вью-модели. Вью-модель это как бы обёртка вокруг объекта предметной области - модели (в нашем случае Rectangle), поэтому логично будет создать сначала модель, потом уже на основании её вью-модель.</t>
+  </si>
+  <si>
+    <t>Rectangle.Selected - перенести во вью-модель. Это свойство не является частью модели прямоугольника, оно нужно для отображения.</t>
+  </si>
+  <si>
+    <t>Чтобы добавить команду обработчика клика в канвасе, надо добавить в канвас следующую разметку:
+&lt;Canvas.InputBindings&gt;
+    &lt;MouseBinding Gesture="LeftClick" Command="{Binding ClickCommand}" CommandParameter="{Binding ElementName=mainCanvas}"/&gt;
+&lt;/Canvas.InputBindings&gt;
+Во вью-модель нужно будет добавить соответствующую команду, которой в качестве параметра будет приходить канвас.
+Потом встанет другая проблема, что в команде нет параметра вью-модели. Эту проблему предлагают решить используя MultiBinding - возможность передавать несколько параметров в команду (изучить самостоятельно).</t>
+  </si>
+  <si>
+    <t>Вместо конструкций вида
+get { return _AddRectangleCommand ?? (_AddRectangleCommand = new RectangulationCommand()); }
+Создать публичное свойство RectangulationCommand RectangulationCommand {get; } 
+его инициализировать в конструкторе. Так код будет проще и нагляднее.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,9 +227,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,13 +636,13 @@
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -711,68 +738,81 @@
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="6">
+        <v>42923</v>
+      </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">

--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Статус</t>
-  </si>
-  <si>
-    <t>Унаследованные классы не используются</t>
-  </si>
-  <si>
-    <t>Базовый класс содержит много лишнего</t>
   </si>
   <si>
     <t>Не используется</t>
@@ -118,6 +112,31 @@
 get { return _AddRectangleCommand ?? (_AddRectangleCommand = new RectangulationCommand()); }
 Создать публичное свойство RectangulationCommand RectangulationCommand {get; } 
 его инициализировать в конструкторе. Так код будет проще и нагляднее.</t>
+  </si>
+  <si>
+    <t>Проанализировать использование if'ов. Во многих местах Решарпер подсказывает, что можно инвертировать if, чтобы уменьшить вложенность</t>
+  </si>
+  <si>
+    <t>values[0] as Canvas; as следует использовать, когда нет точной информации, что в приводимом объекте содержится нужный тип. После подобного приведения чаще всего сразу следует проверка на null.
+В данном случае ты точно знаешь, что values[0] это канвас, поэтому нужно использовать явное преобразование: var canvas = (Canvas)values[0];</t>
+  </si>
+  <si>
+    <t>IMultiValueConverter.Convert лишние строки в методе</t>
+  </si>
+  <si>
+    <t>Нужно сделать, чтобы у выбранного прямоугольника границы закрашивались другим цветом и заливки не происходило</t>
+  </si>
+  <si>
+    <t>LeftClickCommand.SelectRectangle поменять условия выбора прямоугольника так, чтобы выделялся прямоугольник только при клике рядом с границей. Нужно иметь возможность таскать прямоугольники за их рамку.</t>
+  </si>
+  <si>
+    <t>Сейчас есть возможность сделать ректангуляцию, когда полигон не замкнут</t>
+  </si>
+  <si>
+    <t>Надо оставить возможность достраивать полигоны после ректангуляции</t>
+  </si>
+  <si>
+    <t>Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна</t>
   </si>
 </sst>
 </file>
@@ -538,14 +557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="138" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,16 +578,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -579,16 +596,14 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -598,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8"/>
     </row>
@@ -631,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -640,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -649,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -658,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -667,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -685,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -694,18 +709,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -717,29 +734,29 @@
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11"/>
     </row>
@@ -748,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="8"/>
     </row>
@@ -757,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -771,104 +788,120 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="6">
+        <v>42925</v>
+      </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C37" s="4"/>
     </row>
   </sheetData>

--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -136,14 +136,45 @@
     <t>Надо оставить возможность достраивать полигоны после ректангуляции</t>
   </si>
   <si>
-    <t>Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна</t>
+    <r>
+      <t xml:space="preserve">Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При растягивании по вертикали, расстоянием между кнопками не должно меняться, должна меняться только высота списка с прямоугольниками
+при растягивании по горизонтали кнопки пусть растягиваются</t>
+    </r>
+  </si>
+  <si>
+    <t>PolygonVM. Методы AddPoint и Close имеют много общего, нужно вынести общий код в отдельный метод. Код в этих методах выглядит неудобочитаемо, из-за однострочных if'ов и отсутствия разбиения при помощи пустых строк</t>
+  </si>
+  <si>
+    <t>Прямоугольники должны выделяться при клике рядом с их границей, и перетаскиваться должны за эту границу? // да</t>
+  </si>
+  <si>
+    <t>Я исправила выделение, только не верно работает, на 2 угла реагирует. // Тут отличная возможность для использования юнит-тестирования.
+Нужно создать проект для тестов (Rectangulation.Tests). В нём добавить методы для проверки попадания координат x, y в окрестности границы прямоугольника.</t>
+  </si>
+  <si>
+    <t>Условие проверки попадания координат на границу прямоугольника вынести в отдельный метод класса Rectangle. На вход передавать координаты, возвращать true/false.</t>
+  </si>
+  <si>
+    <t>Совсем не разобралась, как перемещать прямоугольники drar'n'drop-ом. // в интернете есть решения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +195,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -222,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,6 +293,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -555,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +656,13 @@
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -705,22 +755,22 @@
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -842,22 +892,22 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -878,31 +928,115 @@
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>42930</v>
+      </c>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -8,15 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="43" sheetId="2" r:id="rId2"/>
+    <sheet name="44" sheetId="4" r:id="rId3"/>
+    <sheet name="45" sheetId="5" r:id="rId4"/>
+    <sheet name="46" sheetId="6" r:id="rId5"/>
+    <sheet name="52" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -136,24 +139,6 @@
     <t>Надо оставить возможность достраивать полигоны после ректангуляции</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При растягивании по вертикали, расстоянием между кнопками не должно меняться, должна меняться только высота списка с прямоугольниками
-при растягивании по горизонтали кнопки пусть растягиваются</t>
-    </r>
-  </si>
-  <si>
     <t>PolygonVM. Методы AddPoint и Close имеют много общего, нужно вынести общий код в отдельный метод. Код в этих методах выглядит неудобочитаемо, из-за однострочных if'ов и отсутствия разбиения при помощи пустых строк</t>
   </si>
   <si>
@@ -168,6 +153,65 @@
   </si>
   <si>
     <t>Совсем не разобралась, как перемещать прямоугольники drar'n'drop-ом. // в интернете есть решения</t>
+  </si>
+  <si>
+    <t>Не надо так:</t>
+  </si>
+  <si>
+    <t>Надо так:</t>
+  </si>
+  <si>
+    <t>См. лист 43. Если есть неиспользуемые using, то их следует удалять! Остальные using лучше писать внутри namespace. Также следует писать namespace согласно тому, где текущий класс находится - если класс лежит в директории Models, то namespace должен быть Rectangulation.Models. Написать summary классам. Данное замечание относится ко всем классам моделей, вью-моделей, командам</t>
+  </si>
+  <si>
+    <t>Рекомендация: если в MainWindow в корневом теге Window указать тип контекста данных, то ReSharper будет понимать, какие свойства биндятся в окне (см. лист 44).</t>
+  </si>
+  <si>
+    <t>В разметке окна следует указывать и строки и колонки, даже если по умолчанию в этом нет необходимости. На примере (см. лист 45) во вложенном Grid задана строка, не задана колонка (которая по умолчанию равна 0). ReSharper рекомендует добавить Grid.Column="0".</t>
+  </si>
+  <si>
+    <t>В MainWindows.cs созданы обработчики. Во-первых, здесь проиходит преобразование типа в MainWindowVM - в таких случаях следует делать либо явное преобразование, либо выполнять проверку на null значение. В данном случае достаточно явного преобразования, т.к. мы уверены, что в DataContext находится экземпляр именно MainWindowVM типа. См. лист 46.</t>
+  </si>
+  <si>
+    <t>В моделях и вью-моделях необходимо исправить порядок: сперва атрибуты (если есть), поток конструкторы классов, потом свойства, потом методы. Чаще всего у тебя свойства написаны выше, чем конструктры.</t>
+  </si>
+  <si>
+    <t>В модели Rectangle есть свойство "public Rect Rect". Раз это свойство, то у него должны быть операторы get и set. Также не хватает summary.</t>
+  </si>
+  <si>
+    <t>В команде RightClickCommand происходит получение var canvas, который не используется в дальнейшем. Если не нужен, то удалить и не передавать его зря в параметре. Также в классе есть метод ClosePolygon(), который хочет быть приватным и статическим! Подобные методы встречаются в других командах - их также сделать приватными и статическими.</t>
+  </si>
+  <si>
+    <t>В Commands лежит класс MultiValueConverter.cs, который не является командой. Лучше создать папку Converters, перенести этот класс туда. Также поправить namespace, добавить summary.</t>
+  </si>
+  <si>
+    <t>В RectangleVM есть конструктор RectangleVM(Rectangle rectangle). В его summary описаны входные параметры x и y, однако их уже нет. Исправить summary.</t>
+  </si>
+  <si>
+    <t>Не стоит писать логику в set у свойств. В RectangleVM в свойстве Selected (которое без почему-то без саммари) происходят изменения полей у Rectangle - это неправильно, это неочевидные изменения. Логику тогда уж лучше в get свойства добавлять, где будет выполняться проверка. См лист 52.</t>
+  </si>
+  <si>
+    <t>Надо так (и саммари добавить ещё):</t>
+  </si>
+  <si>
+    <t>Ну и смотри: такие свойства, как Fill и Stroke, являются свойствами отображения, а значит должны находиться во вью-модели. Следовательно, в модели (в Rectungle, Polygon) эти свойства не нужны - мы ведь не собираемся эти данных хранить. Иногда, конечно, подобные свойства следует хранить в модели. Но в твоём случае, цвет заливки и границы зависит от выделения прямоугольника, и записывать в модель смысла нет. Аналогично есть свойство StrokeThickness у модели Polygon: если бы это значение надо было менять и запоминать в модели, то тогда всё верно. Если же оно всегда равно "2", то пусть это свойство задаётся равным "2" во вью-модели.</t>
+  </si>
+  <si>
+    <t>Аналогично 52му пункту, присутствует логика в классе MainWindowVM, в свойстве SelectedRectangle, в set. В данном случае в команде LeftClickCommand приходится выполнять два присваивания:
+                vmodel.SelectedRectangle = null;
+                vmodel.SelectedRectangle = rectangle;
+Это выглядит неочевидным! Неправильно так! Необходимо логику смены выделения прямоугольников в этой же команде реализовать. А в сеттере оставить назначение атрибуты _selectedRectangle = value и вызов OnPropertyChanged("SelectedRectangle");</t>
+  </si>
+  <si>
+    <t>Кстати да, в классе MainWindowVM свойство SelectedRectangle является вью-моделью, а значит его надо переименовать соответственно в SelectedRectangleVm.</t>
+  </si>
+  <si>
+    <t>Модель Rectangle, булевый метод HitToBorder. Булевые методы лучше начинать с глаголов Is, Has, Need и т.п. В данном случае правильнее будет назвать метод  IsHittingToBorder.</t>
+  </si>
+  <si>
+    <t>Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна 
+При растягивании по вертикали, расстоянием между кнопками не должно меняться, должна меняться только высота списка с прямоугольниками
+при растягивании по горизонтали кнопки пусть растягиваются</t>
   </si>
 </sst>
 </file>
@@ -201,16 +245,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +263,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,11 +306,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,9 +342,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,9 +349,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -316,6 +367,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="600075"/>
+          <a:ext cx="3714286" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428179</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="619125"/>
+          <a:ext cx="3571429" cy="2800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5819775" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5457825" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332572</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="523875"/>
+          <a:ext cx="6428572" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256383</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2190750"/>
+          <a:ext cx="6342858" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56459</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="590550"/>
+          <a:ext cx="5533334" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,24 +1286,24 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -936,7 +1312,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -945,97 +1321,222 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:3" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="B37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>42930</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1046,13 +1547,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1060,10 +1573,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C23:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CodeReview.xlsx
+++ b/CodeReview.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Реализовать базовый класс ViewModel, в котором реализовать INotifyPropertyChanged, все прочие вью-модели наследовать от него. Это позволит избавиться от дублирования кода</t>
   </si>
@@ -212,6 +212,21 @@
     <t>Поправить интерфейс окна, чтобы кнопки не растягивались в высоту, W и H выглядели читаемо и не уползали при изменении размеров окна 
 При растягивании по вертикали, расстоянием между кнопками не должно меняться, должна меняться только высота списка с прямоугольниками
 при растягивании по горизонтали кнопки пусть растягиваются</t>
+  </si>
+  <si>
+    <t>В классе Rectangle осталисть неиспользуемые using</t>
+  </si>
+  <si>
+    <t>В классе Rectangle почти все свойства редактируются только внутри самого класса - значит их аксессор set можно сделать приватным: {get; private set;}. Если у тебя стоит ReSharper 10, то аксессор set можно вообще удалить - это тоже самое, как если бы твоё свойство было readonly.</t>
+  </si>
+  <si>
+    <t>В классе RectangleVM не подписан метод Move(double x, double y).</t>
+  </si>
+  <si>
+    <t>В RectangulationCommand в методе Execute есть неиспользуемый параметр var rectangles.</t>
+  </si>
+  <si>
+    <t>По 44 замечанию: предлагал привязать датаконтекст к классу MainWindowVM (ко вью-модели), а не к MainWindow.</t>
   </si>
 </sst>
 </file>
@@ -246,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -267,7 +282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,7 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,13 +365,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,10 +1358,10 @@
       <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="14"/>
@@ -1393,114 +1411,114 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1508,14 +1526,23 @@
       <c r="A59" s="12">
         <v>57</v>
       </c>
+      <c r="B59" s="6">
+        <v>42937</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1523,14 +1550,23 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
